--- a/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37D3648E-2243-4B35-B1E0-B1AB6D3DD14D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85035ED-3AED-48E5-B47B-CC7F9D08EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4DED84E2-E53B-4C21-BB1C-8CD68B4F8B7C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43D22295-77AE-4608-9623-D840D0E37635}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,1024 +77,1084 @@
     <t>31,05%</t>
   </si>
   <si>
-    <t>28,2%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>Algo</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
   </si>
   <si>
     <t>33,9%</t>
   </si>
   <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>Algo</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>46,97%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,05%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>33,92%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,42%</t>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
   </si>
   <si>
     <t>44,67%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,85%</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,7%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>48,24%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>41,27%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2015 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>36,69%</t>
   </si>
   <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
   </si>
   <si>
     <t>20,84%</t>
   </si>
   <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
   </si>
   <si>
     <t>81,21%</t>
@@ -1124,55 +1184,58 @@
     <t>80,12%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
   </si>
   <si>
     <t>71,8%</t>
@@ -1202,58 +1265,58 @@
     <t>74,79%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>78,9%</t>
@@ -1281,60 +1344,6 @@
   </si>
   <si>
     <t>78,35%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5097E6C9-9B13-4620-B306-3E13A33FE8E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAFE7A-3DA0-4138-90AC-80E5B6CDEB7A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2336,10 +2345,10 @@
         <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>247</v>
@@ -2348,13 +2357,13 @@
         <v>259072</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>530</v>
@@ -2363,13 +2372,13 @@
         <v>551406</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2393,13 @@
         <v>101133</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>81</v>
@@ -2399,13 +2408,13 @@
         <v>85170</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>173</v>
@@ -2414,13 +2423,13 @@
         <v>186302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,13 +2497,13 @@
         <v>1072285</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="H16" s="7">
         <v>1021</v>
@@ -2509,7 +2518,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>2066</v>
@@ -2518,13 +2527,13 @@
         <v>2122023</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,13 +2548,13 @@
         <v>1600498</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H17" s="7">
         <v>1637</v>
@@ -2554,13 +2563,13 @@
         <v>1672814</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>3220</v>
@@ -2569,13 +2578,13 @@
         <v>3273311</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,13 +2599,13 @@
         <v>593263</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H18" s="7">
         <v>630</v>
@@ -2605,13 +2614,13 @@
         <v>646895</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M18" s="7">
         <v>1206</v>
@@ -2620,13 +2629,13 @@
         <v>1240158</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2691,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0197448F-EACF-4723-A8C7-2FCD1D2F6579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E927FF-B711-4004-829E-EB698090473C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2718,7 +2727,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2825,13 +2834,13 @@
         <v>294873</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>361</v>
@@ -2840,13 +2849,13 @@
         <v>388271</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>636</v>
@@ -2855,13 +2864,13 @@
         <v>683144</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,13 +2885,13 @@
         <v>436445</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -2891,13 +2900,13 @@
         <v>616691</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>975</v>
@@ -2906,13 +2915,13 @@
         <v>1053136</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2936,13 @@
         <v>234697</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H6" s="7">
         <v>306</v>
@@ -2942,13 +2951,13 @@
         <v>324586</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M6" s="7">
         <v>529</v>
@@ -2957,13 +2966,13 @@
         <v>559282</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,28 +3040,28 @@
         <v>666027</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>590</v>
       </c>
       <c r="I8" s="7">
-        <v>638271</v>
+        <v>638270</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3061,13 +3070,13 @@
         <v>1304297</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,28 +3091,28 @@
         <v>800208</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H9" s="7">
         <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>698219</v>
+        <v>698218</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>1412</v>
@@ -3112,13 +3121,13 @@
         <v>1498426</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,28 +3142,28 @@
         <v>491039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H10" s="7">
         <v>385</v>
       </c>
       <c r="I10" s="7">
-        <v>410052</v>
+        <v>410051</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>854</v>
@@ -3163,13 +3172,13 @@
         <v>901091</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,7 +3205,7 @@
         <v>1625</v>
       </c>
       <c r="I11" s="7">
-        <v>1746541</v>
+        <v>1746540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3237,13 +3246,13 @@
         <v>136689</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>121</v>
@@ -3252,13 +3261,13 @@
         <v>138719</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M12" s="7">
         <v>247</v>
@@ -3267,13 +3276,13 @@
         <v>275408</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3297,13 @@
         <v>214486</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>52</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
         <v>182</v>
@@ -3303,13 +3312,13 @@
         <v>198579</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>378</v>
@@ -3318,13 +3327,13 @@
         <v>413065</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3339,13 +3348,13 @@
         <v>128982</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>108</v>
@@ -3354,13 +3363,13 @@
         <v>120352</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M14" s="7">
         <v>223</v>
@@ -3369,13 +3378,13 @@
         <v>249333</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3482,7 @@
         <v>2262849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>209</v>
@@ -3560,13 +3569,13 @@
         <v>854989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" s="7">
         <v>1606</v>
@@ -3575,13 +3584,13 @@
         <v>1709706</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>221</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,7 +3646,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3656,7 +3665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA4FA63-B08D-49A5-AB71-811245A24993}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4D670E-7D2D-4ABE-86E5-13660F0C6388}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3673,7 +3682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3780,13 +3789,13 @@
         <v>304455</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7">
         <v>372</v>
@@ -3795,13 +3804,13 @@
         <v>411780</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>678</v>
@@ -3810,13 +3819,13 @@
         <v>716235</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3840,13 @@
         <v>280420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>339</v>
@@ -3846,13 +3855,13 @@
         <v>380491</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3861,10 +3870,10 @@
         <v>660911</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>244</v>
@@ -3903,7 +3912,7 @@
         <v>249</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="M6" s="7">
         <v>343</v>
@@ -3912,13 +3921,13 @@
         <v>363598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3986,13 +3995,13 @@
         <v>774941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>757</v>
@@ -4001,13 +4010,13 @@
         <v>794400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -4016,13 +4025,13 @@
         <v>1569341</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,13 +4046,13 @@
         <v>825623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H9" s="7">
         <v>728</v>
@@ -4052,13 +4061,13 @@
         <v>751086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M9" s="7">
         <v>1504</v>
@@ -4067,13 +4076,13 @@
         <v>1576708</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4097,13 @@
         <v>467045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H10" s="7">
         <v>416</v>
@@ -4103,13 +4112,13 @@
         <v>435442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M10" s="7">
         <v>854</v>
@@ -4121,10 +4130,10 @@
         <v>245</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,13 +4201,13 @@
         <v>179089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="H12" s="7">
         <v>188</v>
@@ -4207,13 +4216,13 @@
         <v>195765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M12" s="7">
         <v>356</v>
@@ -4222,13 +4231,13 @@
         <v>374854</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4252,13 @@
         <v>222397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -4258,13 +4267,13 @@
         <v>218695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>408</v>
@@ -4273,13 +4282,13 @@
         <v>441092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4303,13 @@
         <v>143378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>295</v>
+        <v>250</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -4309,13 +4318,13 @@
         <v>133643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -4324,13 +4333,13 @@
         <v>277021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4407,13 @@
         <v>1258484</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H16" s="7">
         <v>1317</v>
@@ -4413,13 +4422,13 @@
         <v>1401945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
         <v>2521</v>
@@ -4428,13 +4437,13 @@
         <v>2660430</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>159</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4458,13 @@
         <v>1328440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>1276</v>
@@ -4464,13 +4473,13 @@
         <v>1350272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>2537</v>
@@ -4479,13 +4488,13 @@
         <v>2678712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,13 +4509,13 @@
         <v>778148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="H18" s="7">
         <v>719</v>
@@ -4515,13 +4524,13 @@
         <v>764958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M18" s="7">
         <v>1457</v>
@@ -4530,13 +4539,13 @@
         <v>1543106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>89</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4592,7 +4601,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4611,7 +4620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B488F05-6CA9-4D71-88F9-AE029B8DE50C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47DC2E-6616-4D65-A541-8F531616602B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4628,7 +4637,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4729,49 +4738,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>542</v>
+        <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>424455</v>
+        <v>57391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
-        <v>1113</v>
+        <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>636379</v>
+        <v>62882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
-        <v>1655</v>
+        <v>167</v>
       </c>
       <c r="N4" s="7">
-        <v>1060834</v>
+        <v>120273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4786,13 +4795,13 @@
         <v>58738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -4801,13 +4810,13 @@
         <v>132247</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>288</v>
@@ -4816,13 +4825,13 @@
         <v>190985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +4840,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>68</v>
+        <v>542</v>
       </c>
       <c r="D6" s="7">
-        <v>57391</v>
+        <v>424455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>1113</v>
       </c>
       <c r="I6" s="7">
-        <v>62882</v>
+        <v>636379</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M6" s="7">
-        <v>167</v>
+        <v>1655</v>
       </c>
       <c r="N6" s="7">
-        <v>120273</v>
+        <v>1060834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,49 +4944,49 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>1622</v>
+        <v>129</v>
       </c>
       <c r="D8" s="7">
-        <v>1755770</v>
+        <v>140702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H8" s="7">
-        <v>2314</v>
+        <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>1666203</v>
+        <v>295902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>357</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
-        <v>3936</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>3421972</v>
+        <v>436604</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5001,13 @@
         <v>265551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H9" s="7">
         <v>370</v>
@@ -5007,13 +5016,13 @@
         <v>287416</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M9" s="7">
         <v>611</v>
@@ -5022,13 +5031,13 @@
         <v>552967</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,49 +5046,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>129</v>
+        <v>1622</v>
       </c>
       <c r="D10" s="7">
-        <v>140702</v>
+        <v>1755770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H10" s="7">
-        <v>237</v>
+        <v>2314</v>
       </c>
       <c r="I10" s="7">
-        <v>295902</v>
+        <v>1666203</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
-        <v>366</v>
+        <v>3936</v>
       </c>
       <c r="N10" s="7">
-        <v>436604</v>
+        <v>3421972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5141,49 +5150,49 @@
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>494</v>
+        <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>482952</v>
+        <v>77138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="H12" s="7">
-        <v>734</v>
+        <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>518505</v>
+        <v>86576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M12" s="7">
-        <v>1228</v>
+        <v>189</v>
       </c>
       <c r="N12" s="7">
-        <v>1001457</v>
+        <v>163714</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5207,13 @@
         <v>112526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5213,13 +5222,13 @@
         <v>106729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -5228,13 +5237,13 @@
         <v>219255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5243,49 +5252,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>494</v>
       </c>
       <c r="D14" s="7">
-        <v>77138</v>
+        <v>482952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
-        <v>118</v>
+        <v>734</v>
       </c>
       <c r="I14" s="7">
-        <v>86576</v>
+        <v>518505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
-        <v>189</v>
+        <v>1228</v>
       </c>
       <c r="N14" s="7">
-        <v>163714</v>
+        <v>1001457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5347,49 +5356,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2658</v>
+        <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>2663176</v>
+        <v>275230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="H16" s="7">
-        <v>4161</v>
+        <v>454</v>
       </c>
       <c r="I16" s="7">
-        <v>2821086</v>
+        <v>445360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="M16" s="7">
-        <v>6819</v>
+        <v>722</v>
       </c>
       <c r="N16" s="7">
-        <v>5484263</v>
+        <v>720590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5413,13 @@
         <v>436815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H17" s="7">
         <v>726</v>
@@ -5419,13 +5428,13 @@
         <v>526391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M17" s="7">
         <v>1162</v>
@@ -5434,13 +5443,13 @@
         <v>963207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5449,49 +5458,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>268</v>
+        <v>2658</v>
       </c>
       <c r="D18" s="7">
-        <v>275230</v>
+        <v>2663176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="H18" s="7">
-        <v>454</v>
+        <v>4161</v>
       </c>
       <c r="I18" s="7">
-        <v>445360</v>
+        <v>2821086</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="M18" s="7">
-        <v>722</v>
+        <v>6819</v>
       </c>
       <c r="N18" s="7">
-        <v>720590</v>
+        <v>5484263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5547,7 +5556,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B85035ED-3AED-48E5-B47B-CC7F9D08EE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD251161-346C-4DCA-B80F-ECFF42A3DD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43D22295-77AE-4608-9623-D840D0E37635}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A248A8B-DB3A-4B5D-A6ED-17AAFCF90CE5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="436">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>31,05%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
   </si>
   <si>
     <t>31,91%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,7 +107,7 @@
     <t>49,26%</t>
   </si>
   <si>
-    <t>45,98%</t>
+    <t>45,99%</t>
   </si>
   <si>
     <t>52,3%</t>
@@ -116,19 +116,19 @@
     <t>48,18%</t>
   </si>
   <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>48,65%</t>
   </si>
   <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,7 +137,7 @@
     <t>19,69%</t>
   </si>
   <si>
-    <t>17,41%</t>
+    <t>17,31%</t>
   </si>
   <si>
     <t>22,24%</t>
@@ -146,19 +146,19 @@
     <t>19,91%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
   </si>
   <si>
     <t>19,81%</t>
   </si>
   <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
   </si>
   <si>
     <t>100%</t>
@@ -170,82 +170,79 @@
     <t>35,45%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>47,42%</t>
   </si>
   <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
   </si>
   <si>
     <t>49,39%</t>
   </si>
   <si>
-    <t>46,97%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>52,08%</t>
   </si>
   <si>
     <t>48,37%</t>
   </si>
   <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>50,14%</t>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
   </si>
   <si>
     <t>17,13%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
   </si>
   <si>
     <t>18,99%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -254,775 +251,784 @@
     <t>28,11%</t>
   </si>
   <si>
-    <t>24,52%</t>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>50,89%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>50,74%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>42,64%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>43,71%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>48,05%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>42,64%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2016 (Tasa respuesta: 99,6%)</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>40,28%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>28,83%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
   </si>
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
@@ -1031,154 +1037,160 @@
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>8,77%</t>
   </si>
   <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
   </si>
   <si>
     <t>10,87%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
   </si>
   <si>
     <t>15,9%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
   </si>
   <si>
     <t>78,52%</t>
   </si>
   <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>76,53%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>75,24%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>79,22%</t>
   </si>
   <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
+    <t>83,5%</t>
   </si>
   <si>
     <t>74,07%</t>
   </si>
   <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>69,42%</t>
+    <t>69,52%</t>
   </si>
   <si>
     <t>80,12%</t>
@@ -1187,163 +1199,154 @@
     <t>11,47%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>12,16%</t>
   </si>
   <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>11,83%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
   </si>
   <si>
     <t>16,73%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
   </si>
   <si>
     <t>14,99%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
+    <t>17,87%</t>
   </si>
   <si>
     <t>71,8%</t>
   </si>
   <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>72,84%</t>
   </si>
   <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
+    <t>74,54%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>11,74%</t>
   </si>
   <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
   </si>
   <si>
     <t>10,05%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
   </si>
   <si>
     <t>12,94%</t>
   </si>
   <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
   </si>
   <si>
     <t>13,88%</t>
   </si>
   <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
+    <t>14,32%</t>
   </si>
   <si>
     <t>78,9%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
   </si>
   <si>
     <t>74,38%</t>
   </si>
   <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>76,51%</t>
   </si>
   <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
   </si>
 </sst>
 </file>
@@ -1755,7 +1758,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FAFE7A-3DA0-4138-90AC-80E5B6CDEB7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF16C4-ACEC-4779-ACBA-CA80DAAB2320}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2115,13 +2118,13 @@
         <v>1099642</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2139,13 @@
         <v>801625</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>763</v>
@@ -2151,13 +2154,13 @@
         <v>781530</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>1552</v>
@@ -2166,13 +2169,13 @@
         <v>1583155</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,13 +2190,13 @@
         <v>289669</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>295</v>
@@ -2202,13 +2205,13 @@
         <v>300460</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>572</v>
@@ -2217,13 +2220,13 @@
         <v>590129</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,7 +2282,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2291,13 +2294,13 @@
         <v>153834</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>123</v>
@@ -2306,13 +2309,13 @@
         <v>130547</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>271</v>
@@ -2321,13 +2324,13 @@
         <v>284381</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2342,10 +2345,10 @@
         <v>292335</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>80</v>
@@ -2518,7 +2521,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>2066</v>
@@ -2527,7 +2530,7 @@
         <v>2122023</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>102</v>
@@ -2632,10 +2635,10 @@
         <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,7 +2694,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2710,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E927FF-B711-4004-829E-EB698090473C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC39320-1282-4A73-BAA3-30C826DDC7E2}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2727,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2834,13 +2837,13 @@
         <v>294873</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>361</v>
@@ -2849,13 +2852,13 @@
         <v>388271</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>636</v>
@@ -2864,13 +2867,13 @@
         <v>683144</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2888,13 @@
         <v>436445</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="H5" s="7">
         <v>572</v>
@@ -3043,10 +3046,10 @@
         <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>590</v>
@@ -3055,13 +3058,13 @@
         <v>638270</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>1209</v>
@@ -3070,10 +3073,10 @@
         <v>1304297</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>157</v>
@@ -3234,7 +3237,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3482,13 +3485,13 @@
         <v>2262849</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>72</v>
+        <v>209</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3506,13 @@
         <v>1451139</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H17" s="7">
         <v>1404</v>
@@ -3518,13 +3521,13 @@
         <v>1513488</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>2765</v>
@@ -3533,13 +3536,13 @@
         <v>2964627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3557,13 @@
         <v>854717</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>799</v>
@@ -3569,13 +3572,13 @@
         <v>854989</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>225</v>
+        <v>180</v>
       </c>
       <c r="M18" s="7">
         <v>1606</v>
@@ -3587,7 +3590,7 @@
         <v>226</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>227</v>
@@ -3646,7 +3649,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3665,7 +3668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4D670E-7D2D-4ABE-86E5-13660F0C6388}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF434EF5-3934-4453-A948-F5861CB2C7EB}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3858,10 +3861,10 @@
         <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>625</v>
@@ -3873,10 +3876,10 @@
         <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3894,13 @@
         <v>167725</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H6" s="7">
         <v>175</v>
@@ -3906,13 +3909,13 @@
         <v>195873</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M6" s="7">
         <v>343</v>
@@ -3921,13 +3924,13 @@
         <v>363598</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3972,7 @@
         <v>1646</v>
       </c>
       <c r="N7" s="7">
-        <v>1740743</v>
+        <v>1740744</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -3995,13 +3998,13 @@
         <v>774941</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>757</v>
@@ -4010,13 +4013,13 @@
         <v>794400</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>1487</v>
@@ -4025,13 +4028,13 @@
         <v>1569341</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4049,13 @@
         <v>825623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="H9" s="7">
         <v>728</v>
@@ -4061,13 +4064,13 @@
         <v>751086</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M9" s="7">
         <v>1504</v>
@@ -4076,13 +4079,13 @@
         <v>1576708</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4100,13 @@
         <v>467045</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H10" s="7">
         <v>416</v>
@@ -4112,13 +4115,13 @@
         <v>435442</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M10" s="7">
         <v>854</v>
@@ -4127,13 +4130,13 @@
         <v>902487</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4192,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4201,13 +4204,13 @@
         <v>179089</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>279</v>
+        <v>101</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H12" s="7">
         <v>188</v>
@@ -4216,13 +4219,13 @@
         <v>195765</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M12" s="7">
         <v>356</v>
@@ -4231,13 +4234,13 @@
         <v>374854</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4255,13 @@
         <v>222397</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H13" s="7">
         <v>209</v>
@@ -4267,13 +4270,13 @@
         <v>218695</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>294</v>
       </c>
       <c r="M13" s="7">
         <v>408</v>
@@ -4282,13 +4285,13 @@
         <v>441092</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4306,13 @@
         <v>143378</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>250</v>
+        <v>298</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="7">
         <v>128</v>
@@ -4318,13 +4321,13 @@
         <v>133643</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="M14" s="7">
         <v>260</v>
@@ -4333,13 +4336,13 @@
         <v>277021</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4410,13 @@
         <v>1258484</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
         <v>1317</v>
@@ -4422,13 +4425,13 @@
         <v>1401945</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>2521</v>
@@ -4437,13 +4440,13 @@
         <v>2660430</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>159</v>
+        <v>311</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4461,13 @@
         <v>1328440</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="H17" s="7">
         <v>1276</v>
@@ -4473,13 +4476,13 @@
         <v>1350272</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M17" s="7">
         <v>2537</v>
@@ -4488,13 +4491,13 @@
         <v>2678712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4512,13 @@
         <v>778148</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H18" s="7">
         <v>719</v>
@@ -4524,13 +4527,13 @@
         <v>764958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M18" s="7">
         <v>1457</v>
@@ -4539,13 +4542,13 @@
         <v>1543106</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>89</v>
+        <v>327</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4604,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4620,7 +4623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB47DC2E-6616-4D65-A541-8F531616602B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8497CFC0-F1C8-4EAB-B6C8-78D20A542ECA}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4637,7 +4640,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4744,13 +4747,13 @@
         <v>57391</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="H4" s="7">
         <v>99</v>
@@ -4759,13 +4762,13 @@
         <v>62882</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M4" s="7">
         <v>167</v>
@@ -4774,13 +4777,13 @@
         <v>120273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,13 +4798,13 @@
         <v>58738</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
@@ -4810,13 +4813,13 @@
         <v>132247</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>288</v>
@@ -4825,13 +4828,13 @@
         <v>190985</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4849,13 @@
         <v>424455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>1113</v>
@@ -4861,13 +4864,13 @@
         <v>636379</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>1655</v>
@@ -4876,13 +4879,13 @@
         <v>1060834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,13 +4953,13 @@
         <v>140702</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
@@ -4965,13 +4968,13 @@
         <v>295902</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
@@ -4980,13 +4983,13 @@
         <v>436604</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5004,13 @@
         <v>265551</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>370</v>
@@ -5016,13 +5019,13 @@
         <v>287416</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>611</v>
@@ -5031,13 +5034,13 @@
         <v>552967</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,28 +5055,28 @@
         <v>1755770</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>2314</v>
       </c>
       <c r="I10" s="7">
-        <v>1666203</v>
+        <v>1666202</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>3936</v>
@@ -5082,13 +5085,13 @@
         <v>3421972</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,7 +5118,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5144,7 +5147,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5156,13 +5159,13 @@
         <v>77138</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
@@ -5171,13 +5174,13 @@
         <v>86576</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
@@ -5186,13 +5189,13 @@
         <v>163714</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5210,13 @@
         <v>112526</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
@@ -5222,13 +5225,13 @@
         <v>106729</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
@@ -5237,13 +5240,13 @@
         <v>219255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,13 +5261,13 @@
         <v>482952</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H14" s="7">
         <v>734</v>
@@ -5273,13 +5276,13 @@
         <v>518505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
@@ -5288,13 +5291,13 @@
         <v>1001457</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5365,13 @@
         <v>275230</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>454</v>
@@ -5377,13 +5380,13 @@
         <v>445360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
@@ -5392,13 +5395,13 @@
         <v>720590</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,13 +5416,13 @@
         <v>436815</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H17" s="7">
         <v>726</v>
@@ -5428,13 +5431,13 @@
         <v>526391</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>421</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M17" s="7">
         <v>1162</v>
@@ -5443,13 +5446,13 @@
         <v>963207</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,13 +5467,13 @@
         <v>2663176</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>4161</v>
@@ -5479,13 +5482,13 @@
         <v>2821086</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>6819</v>
@@ -5494,13 +5497,13 @@
         <v>5484263</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5556,7 +5559,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P05A05-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD251161-346C-4DCA-B80F-ECFF42A3DD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCEF6B62-B788-4224-9EE2-7A553D8AF9E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A248A8B-DB3A-4B5D-A6ED-17AAFCF90CE5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{17C835F6-95F1-47F1-AAA8-630F4F353194}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="434">
   <si>
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2007 (Tasa respuesta: 99,71%)</t>
   </si>
@@ -1034,319 +1034,313 @@
     <t>Población según si en el barrio donde vive hay espacios verdes suficientes en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>79,17%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>13,99%</t>
   </si>
   <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>69,52%</t>
-  </si>
-  <si>
-    <t>80,12%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90FF16C4-ACEC-4779-ACBA-CA80DAAB2320}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90ABD503-B5FF-4CE6-A550-B5AA8EA1781A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2713,7 +2707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC39320-1282-4A73-BAA3-30C826DDC7E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B4F0A6-8D1A-40FB-B5CD-A9D3746E1033}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3055,7 +3049,7 @@
         <v>590</v>
       </c>
       <c r="I8" s="7">
-        <v>638270</v>
+        <v>638271</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>152</v>
@@ -3106,7 +3100,7 @@
         <v>650</v>
       </c>
       <c r="I9" s="7">
-        <v>698218</v>
+        <v>698219</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>161</v>
@@ -3157,7 +3151,7 @@
         <v>385</v>
       </c>
       <c r="I10" s="7">
-        <v>410051</v>
+        <v>410052</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>170</v>
@@ -3172,7 +3166,7 @@
         <v>854</v>
       </c>
       <c r="N10" s="7">
-        <v>901091</v>
+        <v>901090</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>173</v>
@@ -3208,7 +3202,7 @@
         <v>1625</v>
       </c>
       <c r="I11" s="7">
-        <v>1746540</v>
+        <v>1746541</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -3223,7 +3217,7 @@
         <v>3475</v>
       </c>
       <c r="N11" s="7">
-        <v>3703814</v>
+        <v>3703813</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -3668,7 +3662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF434EF5-3934-4453-A948-F5861CB2C7EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB005E8A-FBAA-474E-8C40-F45C72188F1E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3972,7 +3966,7 @@
         <v>1646</v>
       </c>
       <c r="N7" s="7">
-        <v>1740744</v>
+        <v>1740743</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4112,7 +4106,7 @@
         <v>416</v>
       </c>
       <c r="I10" s="7">
-        <v>435442</v>
+        <v>435443</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>276</v>
@@ -4163,7 +4157,7 @@
         <v>1901</v>
       </c>
       <c r="I11" s="7">
-        <v>1980928</v>
+        <v>1980929</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4623,7 +4617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8497CFC0-F1C8-4EAB-B6C8-78D20A542ECA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715032EF-6C93-45B3-A803-CF4E2F6A2A25}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4744,7 +4738,7 @@
         <v>68</v>
       </c>
       <c r="D4" s="7">
-        <v>57391</v>
+        <v>55449</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>331</v>
@@ -4759,7 +4753,7 @@
         <v>99</v>
       </c>
       <c r="I4" s="7">
-        <v>62882</v>
+        <v>57287</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>334</v>
@@ -4774,16 +4768,16 @@
         <v>167</v>
       </c>
       <c r="N4" s="7">
-        <v>120273</v>
+        <v>112736</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>337</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,46 +4789,46 @@
         <v>80</v>
       </c>
       <c r="D5" s="7">
-        <v>58738</v>
+        <v>54898</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H5" s="7">
         <v>208</v>
       </c>
       <c r="I5" s="7">
-        <v>132247</v>
+        <v>119278</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M5" s="7">
         <v>288</v>
       </c>
       <c r="N5" s="7">
-        <v>190985</v>
+        <v>174177</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,46 +4840,46 @@
         <v>542</v>
       </c>
       <c r="D6" s="7">
-        <v>424455</v>
+        <v>403572</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H6" s="7">
         <v>1113</v>
       </c>
       <c r="I6" s="7">
-        <v>636379</v>
+        <v>574904</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M6" s="7">
         <v>1655</v>
       </c>
       <c r="N6" s="7">
-        <v>1060834</v>
+        <v>978476</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4891,7 @@
         <v>690</v>
       </c>
       <c r="D7" s="7">
-        <v>540584</v>
+        <v>513919</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4912,7 +4906,7 @@
         <v>1420</v>
       </c>
       <c r="I7" s="7">
-        <v>831508</v>
+        <v>751470</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4927,7 +4921,7 @@
         <v>2110</v>
       </c>
       <c r="N7" s="7">
-        <v>1372092</v>
+        <v>1265389</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4950,46 +4944,46 @@
         <v>129</v>
       </c>
       <c r="D8" s="7">
-        <v>140702</v>
+        <v>137589</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>237</v>
       </c>
       <c r="I8" s="7">
-        <v>295902</v>
+        <v>373771</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>362</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="M8" s="7">
         <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>436604</v>
+        <v>511360</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,46 +4995,46 @@
         <v>241</v>
       </c>
       <c r="D9" s="7">
-        <v>265551</v>
+        <v>253812</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H9" s="7">
         <v>370</v>
       </c>
       <c r="I9" s="7">
-        <v>287416</v>
+        <v>318010</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M9" s="7">
         <v>611</v>
       </c>
       <c r="N9" s="7">
-        <v>552967</v>
+        <v>571821</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,46 +5046,46 @@
         <v>1622</v>
       </c>
       <c r="D10" s="7">
-        <v>1755770</v>
+        <v>1898926</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>2314</v>
       </c>
       <c r="I10" s="7">
-        <v>1666202</v>
+        <v>1546043</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M10" s="7">
         <v>3936</v>
       </c>
       <c r="N10" s="7">
-        <v>3421972</v>
+        <v>3444969</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,7 +5097,7 @@
         <v>1992</v>
       </c>
       <c r="D11" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -5118,7 +5112,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -5133,7 +5127,7 @@
         <v>4913</v>
       </c>
       <c r="N11" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -5156,46 +5150,46 @@
         <v>71</v>
       </c>
       <c r="D12" s="7">
-        <v>77138</v>
+        <v>73377</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>118</v>
       </c>
       <c r="I12" s="7">
-        <v>86576</v>
+        <v>79404</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="M12" s="7">
         <v>189</v>
       </c>
       <c r="N12" s="7">
-        <v>163714</v>
+        <v>152780</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,46 +5201,46 @@
         <v>115</v>
       </c>
       <c r="D13" s="7">
-        <v>112526</v>
+        <v>108260</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>396</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
         <v>148</v>
       </c>
       <c r="I13" s="7">
-        <v>106729</v>
+        <v>97518</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="M13" s="7">
         <v>263</v>
       </c>
       <c r="N13" s="7">
-        <v>219255</v>
+        <v>205778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>401</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,46 +5252,46 @@
         <v>494</v>
       </c>
       <c r="D14" s="7">
-        <v>482952</v>
+        <v>464587</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H14" s="7">
         <v>734</v>
       </c>
       <c r="I14" s="7">
-        <v>518505</v>
+        <v>481606</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M14" s="7">
         <v>1228</v>
       </c>
       <c r="N14" s="7">
-        <v>1001457</v>
+        <v>946193</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>406</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,7 +5303,7 @@
         <v>680</v>
       </c>
       <c r="D15" s="7">
-        <v>672616</v>
+        <v>646223</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5324,7 +5318,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="7">
-        <v>711810</v>
+        <v>658528</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5339,7 +5333,7 @@
         <v>1680</v>
       </c>
       <c r="N15" s="7">
-        <v>1384426</v>
+        <v>1304751</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5362,46 +5356,46 @@
         <v>268</v>
       </c>
       <c r="D16" s="7">
-        <v>275230</v>
+        <v>266414</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H16" s="7">
         <v>454</v>
       </c>
       <c r="I16" s="7">
-        <v>445360</v>
+        <v>510462</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
       </c>
       <c r="N16" s="7">
-        <v>720590</v>
+        <v>776876</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>418</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,46 +5407,46 @@
         <v>436</v>
       </c>
       <c r="D17" s="7">
-        <v>436815</v>
+        <v>416970</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>726</v>
       </c>
       <c r="I17" s="7">
-        <v>526391</v>
+        <v>534806</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>1162</v>
       </c>
       <c r="N17" s="7">
-        <v>963207</v>
+        <v>951776</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5464,46 +5458,46 @@
         <v>2658</v>
       </c>
       <c r="D18" s="7">
-        <v>2663176</v>
+        <v>2767085</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H18" s="7">
         <v>4161</v>
       </c>
       <c r="I18" s="7">
-        <v>2821086</v>
+        <v>2602553</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>6819</v>
       </c>
       <c r="N18" s="7">
-        <v>5484263</v>
+        <v>5369638</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,7 +5509,7 @@
         <v>3362</v>
       </c>
       <c r="D19" s="7">
-        <v>3375222</v>
+        <v>3450469</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5530,7 +5524,7 @@
         <v>5341</v>
       </c>
       <c r="I19" s="7">
-        <v>3792838</v>
+        <v>3647821</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5545,7 +5539,7 @@
         <v>8703</v>
       </c>
       <c r="N19" s="7">
-        <v>7168060</v>
+        <v>7098290</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
